--- a/data/case1/11/Qlm1_13.xlsx
+++ b/data/case1/11/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.083939471173032132</v>
+        <v>-0.12839389494417475</v>
       </c>
       <c r="B1" s="0">
-        <v>0.083909162230952461</v>
+        <v>0.12833192244811897</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.066040071898979313</v>
+        <v>-0.12595429452686169</v>
       </c>
       <c r="B2" s="0">
-        <v>0.065968226442747024</v>
+        <v>0.1257056409456716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.016267241256009868</v>
+        <v>-0.076003000305535195</v>
       </c>
       <c r="B3" s="0">
-        <v>0.016176932232010444</v>
+        <v>0.075812318505009912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0081769322788769472</v>
+        <v>-0.067812318527879611</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0077071060521216594</v>
+        <v>0.067359810333744718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0047071060725887293</v>
+        <v>-0.064359810345857582</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0030975038706655411</v>
+        <v>0.062822722351545401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.027372429556551836</v>
+        <v>-0.012057899823764373</v>
       </c>
       <c r="B6" s="0">
-        <v>0.027161741856106758</v>
+        <v>0.011908558314157602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.017161741915221018</v>
+        <v>-0.0019085583455806798</v>
       </c>
       <c r="B7" s="0">
-        <v>0.017123500217887777</v>
+        <v>0.0018844350237183782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.007123500278130912</v>
+        <v>0.0081155649447532952</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0070855464680970037</v>
+        <v>-0.0081374785888814749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0050855464862129551</v>
+        <v>-0.027808142841815098</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0050627738998616501</v>
+        <v>0.027588325231679978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0030627739184918568</v>
+        <v>-0.025588325245371024</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0030628929336984356</v>
+        <v>0.025573093311754391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-6.2892957715554587e-05</v>
+        <v>-0.024386016686771761</v>
       </c>
       <c r="B11" s="0">
-        <v>6.2685418472874233e-05</v>
+        <v>0.024359802617818893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0034373145548327599</v>
+        <v>-0.020859802635417424</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0034398600101370747</v>
+        <v>0.020668741812290392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0069398599838148556</v>
+        <v>-0.017168741831359746</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0069418219210337639</v>
+        <v>0.017081513816760818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.014941821870896099</v>
+        <v>-0.0090815138468984813</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.014955076814745283</v>
+        <v>0.0090528277403523205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.01595507680284225</v>
+        <v>-0.0080528277541924709</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.01597704782854148</v>
+        <v>0.0080342871564313967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060328162806415619</v>
+        <v>-0.0060342871728966685</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032821728626118</v>
+        <v>0.0060036415158770673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032821898066118</v>
+        <v>-0.0040036415327353581</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999721125334</v>
+        <v>0.0039999999783146833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.011869090364573509</v>
+        <v>0.0036223720642176716</v>
       </c>
       <c r="B18" s="0">
-        <v>0.011852198140502423</v>
+        <v>-0.0036590741938660187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.007852198162520807</v>
+        <v>0.0076590741840711907</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0077498302515928152</v>
+        <v>-0.0079035286184732101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0037498302747227541</v>
+        <v>-0.0080171183275314917</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0037317485675600892</v>
+        <v>0.0080057044768864216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0002682514091629784</v>
+        <v>-0.0040057044865395852</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.00028272624493563825</v>
+        <v>0.0039999999902580186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04570098521160304</v>
+        <v>-0.045702640652486082</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045491008484678019</v>
+        <v>0.045491924144830165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040491008516589488</v>
+        <v>-0.040491924160342307</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097418568075582</v>
+        <v>0.040097689919703861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097418683597823</v>
+        <v>-0.020097689972140564</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999882838182</v>
+        <v>0.019999999946863412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.026274925670117355</v>
+        <v>-0.066531039155973914</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.026365050228857712</v>
+        <v>0.066443966539896593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.025020216807082107</v>
+        <v>-0.063943966553912546</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.025132606890835518</v>
+        <v>0.063834721638137637</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.027632606873391641</v>
+        <v>-0.061334721652834823</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.028298586782999013</v>
+        <v>0.060706469413871478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.013676014743688292</v>
+        <v>-0.058706469430593877</v>
       </c>
       <c r="B28" s="0">
-        <v>0.013386918987974283</v>
+        <v>0.05828944539173353</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006386919027897342</v>
+        <v>-0.051289445422262325</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0063126317157555789</v>
+        <v>0.05117748755439866</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021164370724240378</v>
+        <v>-0.021169058663374596</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022363337719785</v>
+        <v>0.021023824447650608</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022363380043146</v>
+        <v>-0.014023824480274172</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001175778462382</v>
+        <v>0.014001446289830355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011758372475725</v>
+        <v>-0.004001446329729319</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999732582836</v>
+        <v>0.003999999974221069</v>
       </c>
     </row>
   </sheetData>
